--- a/DB/metadata_panama.xlsx
+++ b/DB/metadata_panama.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos Generales\Cuatrimestre 9\Análisis Multidimensional de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MultiPanamaCovid\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB1604-D02E-4512-88E7-8A38C98EE24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9068543D-BA72-44A2-B399-F10C2F01CC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="645" windowWidth="18630" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_5177036325991219735" sheetId="1" r:id="rId1"/>
@@ -8732,6 +8732,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9243,7 +9246,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -9601,8 +9604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
